--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.216179</v>
+        <v>1.107578333333333</v>
       </c>
       <c r="H2">
-        <v>12.648537</v>
+        <v>3.322735</v>
       </c>
       <c r="I2">
-        <v>0.01683192247764961</v>
+        <v>0.004477262396335327</v>
       </c>
       <c r="J2">
-        <v>0.01683192247764961</v>
+        <v>0.004477262396335327</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>88.88470006331301</v>
+        <v>3.828084597451111</v>
       </c>
       <c r="R2">
-        <v>799.9623005698171</v>
+        <v>34.45276137706</v>
       </c>
       <c r="S2">
-        <v>0.0009621228125480962</v>
+        <v>4.40631381939021E-05</v>
       </c>
       <c r="T2">
-        <v>0.0009621228125480962</v>
+        <v>4.40631381939021E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.216179</v>
+        <v>1.107578333333333</v>
       </c>
       <c r="H3">
-        <v>12.648537</v>
+        <v>3.322735</v>
       </c>
       <c r="I3">
-        <v>0.01683192247764961</v>
+        <v>0.004477262396335327</v>
       </c>
       <c r="J3">
-        <v>0.01683192247764961</v>
+        <v>0.004477262396335327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>1271.600213205278</v>
+        <v>334.0457899933122</v>
       </c>
       <c r="R3">
-        <v>11444.4019188475</v>
+        <v>3006.41210993981</v>
       </c>
       <c r="S3">
-        <v>0.01376429883539419</v>
+        <v>0.003845031485815928</v>
       </c>
       <c r="T3">
-        <v>0.01376429883539419</v>
+        <v>0.003845031485815928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.216179</v>
+        <v>1.107578333333333</v>
       </c>
       <c r="H4">
-        <v>12.648537</v>
+        <v>3.322735</v>
       </c>
       <c r="I4">
-        <v>0.01683192247764961</v>
+        <v>0.004477262396335327</v>
       </c>
       <c r="J4">
-        <v>0.01683192247764961</v>
+        <v>0.004477262396335327</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>194.514470804357</v>
+        <v>51.0984029337239</v>
       </c>
       <c r="R4">
-        <v>1750.630237239213</v>
+        <v>459.885626403515</v>
       </c>
       <c r="S4">
-        <v>0.002105500829707329</v>
+        <v>0.0005881677723254975</v>
       </c>
       <c r="T4">
-        <v>0.002105500829707329</v>
+        <v>0.0005881677723254974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>212.7693433333333</v>
+        <v>212.7693433333334</v>
       </c>
       <c r="H5">
-        <v>638.3080299999999</v>
+        <v>638.30803</v>
       </c>
       <c r="I5">
-        <v>0.8494224492382986</v>
+        <v>0.860096438625976</v>
       </c>
       <c r="J5">
-        <v>0.8494224492382987</v>
+        <v>0.8600964386259761</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>4485.563650132358</v>
+        <v>735.3873053590978</v>
       </c>
       <c r="R5">
-        <v>40370.07285119122</v>
+        <v>6618.48574823188</v>
       </c>
       <c r="S5">
-        <v>0.04855349809196387</v>
+        <v>0.008464669898793437</v>
       </c>
       <c r="T5">
-        <v>0.04855349809196388</v>
+        <v>0.008464669898793437</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>212.7693433333333</v>
+        <v>212.7693433333334</v>
       </c>
       <c r="H6">
-        <v>638.3080299999999</v>
+        <v>638.30803</v>
       </c>
       <c r="I6">
-        <v>0.8494224492382986</v>
+        <v>0.860096438625976</v>
       </c>
       <c r="J6">
-        <v>0.8494224492382987</v>
+        <v>0.8600964386259761</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
-        <v>64171.26558104236</v>
+        <v>64171.26558104238</v>
       </c>
       <c r="R6">
-        <v>577541.3902293813</v>
+        <v>577541.3902293814</v>
       </c>
       <c r="S6">
-        <v>0.6946149166462301</v>
+        <v>0.7386428568631378</v>
       </c>
       <c r="T6">
-        <v>0.6946149166462302</v>
+        <v>0.7386428568631378</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>212.7693433333333</v>
+        <v>212.7693433333334</v>
       </c>
       <c r="H7">
-        <v>638.3080299999999</v>
+        <v>638.30803</v>
       </c>
       <c r="I7">
-        <v>0.8494224492382986</v>
+        <v>0.860096438625976</v>
       </c>
       <c r="J7">
-        <v>0.8494224492382987</v>
+        <v>0.8600964386259761</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
-        <v>9816.166776096052</v>
+        <v>9816.166776096055</v>
       </c>
       <c r="R7">
-        <v>88345.50098486447</v>
+        <v>88345.50098486448</v>
       </c>
       <c r="S7">
-        <v>0.1062540345001046</v>
+        <v>0.1129889118640448</v>
       </c>
       <c r="T7">
-        <v>0.1062540345001046</v>
+        <v>0.1129889118640448</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>100.504653</v>
       </c>
       <c r="I8">
-        <v>0.1337456282840517</v>
+        <v>0.1354262989776887</v>
       </c>
       <c r="J8">
-        <v>0.1337456282840517</v>
+        <v>0.1354262989776887</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>706.2734557263303</v>
+        <v>115.7902493341986</v>
       </c>
       <c r="R8">
-        <v>6356.461101536972</v>
+        <v>1042.112244007788</v>
       </c>
       <c r="S8">
-        <v>0.007644980555342523</v>
+        <v>0.001332802770690162</v>
       </c>
       <c r="T8">
-        <v>0.007644980555342523</v>
+        <v>0.001332802770690162</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>100.504653</v>
       </c>
       <c r="I9">
-        <v>0.1337456282840517</v>
+        <v>0.1354262989776887</v>
       </c>
       <c r="J9">
-        <v>0.1337456282840517</v>
+        <v>0.1354262989776887</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>10104.07276216391</v>
@@ -1004,10 +1004,10 @@
         <v>90936.65485947522</v>
       </c>
       <c r="S9">
-        <v>0.1093704416755548</v>
+        <v>0.1163028514931237</v>
       </c>
       <c r="T9">
-        <v>0.1093704416755548</v>
+        <v>0.1163028514931237</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>100.504653</v>
       </c>
       <c r="I10">
-        <v>0.1337456282840517</v>
+        <v>0.1354262989776887</v>
       </c>
       <c r="J10">
-        <v>0.1337456282840517</v>
+        <v>0.1354262989776887</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>1545.602419605567</v>
@@ -1066,10 +1066,10 @@
         <v>13910.4217764501</v>
       </c>
       <c r="S10">
-        <v>0.01673020605315438</v>
+        <v>0.0177906447138749</v>
       </c>
       <c r="T10">
-        <v>0.01673020605315438</v>
+        <v>0.0177906447138749</v>
       </c>
     </row>
   </sheetData>
